--- a/templates/Module_5_Template.xlsx
+++ b/templates/Module_5_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="391" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="391"/>
   </bookViews>
   <sheets>
     <sheet name="Entry into Labour Market" sheetId="1" r:id="rId1"/>
@@ -3040,8 +3040,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CB250"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3233,9 +3233,7 @@
       <c r="J4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="11">
-        <v>2018</v>
-      </c>
+      <c r="K4" s="11"/>
       <c r="AA4" s="4" t="s">
         <v>15</v>
       </c>
@@ -9923,6 +9921,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="68a7xf6NEP5sJK5BnSZRIsPK339oIyGx48io5F4vkImo0bD9tEJ/TGZTetzP0MS+5Hu7s79rpDEP/0bQjWnqng==" saltValue="Qr5iAWaS0E5ibKpfglwrFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="12">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
@@ -9981,7 +9980,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -10080,7 +10079,7 @@
       </c>
       <c r="J4" s="6">
         <f>'Entry into Labour Market'!K4</f>
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="O4" s="14"/>
     </row>
@@ -10279,6 +10278,7 @@
       <c r="M15" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="79PdJ+MgxZ6eLXQObD8hmYPbnqSTtD933mQKSx6KNtXcM47kUYTRQgnM9xX+epAqDfkvalqQ7dTC1EunKJd+qQ==" saltValue="aLY6e0HlEKlHAgbFC0Kztw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>

--- a/templates/Module_5_Template.xlsx
+++ b/templates/Module_5_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20350"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\EyeSeeTea\excel-data-import-app\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer_React\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA59CD-1637-4CAE-8162-B613ED6EFDBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" tabRatio="391"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entry into Labour Market" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="dropdownlist">'Entry into Labour Market'!$AG$2:INDEX('Entry into Labour Market'!$AG$2:$AG$250,MAX('Entry into Labour Market'!$AF$2:$AF$250),1)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -40,9 +41,6 @@
     <t>Medical Doctors</t>
   </si>
   <si>
-    <t>Specialist Medical Practitioners</t>
-  </si>
-  <si>
     <t>Nursing Professionals</t>
   </si>
   <si>
@@ -2318,9 +2316,6 @@
   </si>
   <si>
     <t>VNM</t>
-  </si>
-  <si>
-    <t>General Medical Practitioners</t>
   </si>
   <si>
     <t>Health Workforce Market Flow</t>
@@ -2353,9 +2348,6 @@
 trained employed By Sex (5-03)</t>
   </si>
   <si>
-    <t>Currently unemployed (5-06)</t>
-  </si>
-  <si>
     <t>Vacancy rate
 (%) (5-07)</t>
   </si>
@@ -2364,16 +2356,27 @@
 (5-04)</t>
   </si>
   <si>
-    <t>Involuntary exits (5-05)</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">    General Medical Practitioners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Specialist Medical Practitioners</t>
+  </si>
+  <si>
+    <t>Currently unemployed
+(5-06)</t>
+  </si>
+  <si>
+    <t>Involuntary exits
+(5-05)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2551,7 +2554,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2567,7 +2570,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2576,9 +2578,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyProtection="1">
@@ -2651,27 +2650,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="40% - Énfasis1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma [0] 2" xfId="3"/>
-    <cellStyle name="Comma [0] 3" xfId="4"/>
-    <cellStyle name="Comma 2" xfId="5"/>
-    <cellStyle name="Comma 3" xfId="6"/>
-    <cellStyle name="Comma 4" xfId="7"/>
-    <cellStyle name="Comma 5" xfId="2"/>
-    <cellStyle name="flashing" xfId="8"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma [0] 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="flashing" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal 3" xfId="10"/>
-    <cellStyle name="Normal 3 2" xfId="11"/>
-    <cellStyle name="Normal 4" xfId="12"/>
-    <cellStyle name="Normal 4 2" xfId="13"/>
-    <cellStyle name="Normal 5" xfId="14"/>
-    <cellStyle name="Normal 6" xfId="15"/>
-    <cellStyle name="Normal 7" xfId="16"/>
-    <cellStyle name="Normal 8" xfId="17"/>
-    <cellStyle name="tgl" xfId="18"/>
+    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 5" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 6" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 7" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 8" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="tgl" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2697,13 +2702,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>713014</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>277586</xdr:rowOff>
+          <xdr:rowOff>276225</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>10886</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2713,6 +2718,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2751,7 +2759,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2826,6 +2834,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2861,6 +2886,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3036,58 +3078,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:CB250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15234375" style="4"/>
-    <col min="2" max="2" width="10.84375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53.3828125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.23046875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.69140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.84375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.69140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.3046875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.07421875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.4609375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.3046875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.15234375" style="4" customWidth="1"/>
-    <col min="14" max="17" width="9.15234375" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="12.53515625" style="4" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.53515625" style="4" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16.3046875" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="28" style="4" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="4" customWidth="1"/>
+    <col min="11" max="12" width="14.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="4" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="12" style="4" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="12.15234375" style="4" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.69140625" style="4" hidden="1" customWidth="1"/>
-    <col min="24" max="34" width="9.15234375" style="4" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="9.15234375" style="4" customWidth="1"/>
-    <col min="36" max="16384" width="9.15234375" style="4"/>
+    <col min="22" max="22" width="12.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="4" hidden="1" customWidth="1"/>
+    <col min="24" max="34" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="4" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:33" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -3095,41 +3134,41 @@
       <c r="T1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="12" t="s">
-        <v>778</v>
+      <c r="X1" s="10" t="s">
+        <v>774</v>
       </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="2:33" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
-        <v>766</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+    </row>
+    <row r="2" spans="2:33" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -3137,23 +3176,23 @@
       <c r="T2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="13" t="e">
+      <c r="X2" s="11" t="e">
         <f>VLOOKUP(X1,AA2:AD250,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" ref="AE2:AE67" si="0">--ISNUMBER(IFERROR(SEARCH($X$1,AA2,1),""))</f>
@@ -3168,12 +3207,12 @@
         <v>Algeria</v>
       </c>
     </row>
-    <row r="3" spans="2:33" ht="22.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:33" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3195,16 +3234,16 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="AC3" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="AD3" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
@@ -3219,32 +3258,32 @@
         <v>Angola</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="str">
+      <c r="G4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="34" t="str">
         <f>IFERROR(VLOOKUP(X1,AA2:AD250,4,0),"")</f>
         <v/>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="11"/>
+      <c r="K4" s="34"/>
       <c r="AA4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="AC4" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="0"/>
@@ -3259,7 +3298,7 @@
         <v>Benin</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="22.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:33" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
@@ -3280,16 +3319,16 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="AA5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC5" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AC5" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="AD5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="0"/>
@@ -3304,25 +3343,25 @@
         <v>Botswana</v>
       </c>
     </row>
-    <row r="6" spans="2:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
+    <row r="6" spans="2:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
       <c r="AA6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="AC6" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="AD6" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" si="0"/>
@@ -3337,52 +3376,52 @@
         <v>Burkina Faso</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="44.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="28" t="s">
+    <row r="7" spans="2:33" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>767</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="F7" s="31"/>
+      <c r="G7" s="28" t="s">
         <v>768</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="H7" s="30" t="s">
         <v>769</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="30" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="28" t="s">
         <v>770</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="K7" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="30" t="s">
-        <v>772</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>773</v>
-      </c>
-      <c r="L7" s="33"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
+      <c r="L7" s="31"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
       <c r="AA7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC7" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AC7" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="AD7" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" si="0"/>
@@ -3397,48 +3436,48 @@
         <v>Burundi</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="23" t="s">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="21" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="23" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
       <c r="AA8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="AC8" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="AD8" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="0"/>
@@ -3453,40 +3492,40 @@
         <v>Cabo Verde</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
       <c r="AA9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC9" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="AC9" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="AD9" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE9" s="4">
         <f t="shared" si="0"/>
@@ -3501,40 +3540,40 @@
         <v>Cameroon</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B10" s="7">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
+      <c r="C10" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
       <c r="AA10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC10" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="AC10" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="AD10" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE10" s="4">
         <f t="shared" si="0"/>
@@ -3549,40 +3588,40 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B11" s="7">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
         <v>3</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="C11" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
       <c r="AA11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC11" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="AC11" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="AD11" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE11" s="4">
         <f t="shared" si="0"/>
@@ -3597,40 +3636,40 @@
         <v>Chad</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B12" s="7">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
         <v>4</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
       <c r="AA12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AB12" s="4" t="s">
+      <c r="AC12" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AC12" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="AD12" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE12" s="4">
         <f t="shared" si="0"/>
@@ -3645,40 +3684,40 @@
         <v>Comoros</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B13" s="7">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
         <v>5</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="C13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
       <c r="AA13" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB13" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AB13" s="4" t="s">
+      <c r="AC13" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AC13" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="AD13" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE13" s="4">
         <f t="shared" si="0"/>
@@ -3693,40 +3732,40 @@
         <v>Congo</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B14" s="7">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
         <v>6</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
       <c r="AA14" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB14" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AC14" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="AC14" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="AD14" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE14" s="4">
         <f t="shared" si="0"/>
@@ -3741,40 +3780,40 @@
         <v>Cote d'Ivoire</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.4">
-      <c r="B15" s="7">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
       <c r="AA15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC15" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="AC15" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="AD15" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE15" s="4">
         <f t="shared" si="0"/>
@@ -3789,18 +3828,18 @@
         <v>Democratic Republic of the Congo</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AA16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB16" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC16" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="AC16" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="AD16" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE16" s="4">
         <f t="shared" si="0"/>
@@ -3815,18 +3854,18 @@
         <v>Equatorial Guinea</v>
       </c>
     </row>
-    <row r="17" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="17" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB17" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC17" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AC17" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="AD17" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE17" s="4">
         <f t="shared" si="0"/>
@@ -3841,18 +3880,18 @@
         <v>Eritrea</v>
       </c>
     </row>
-    <row r="18" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB18" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC18" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AC18" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="AD18" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE18" s="4">
         <f t="shared" si="0"/>
@@ -3867,18 +3906,18 @@
         <v>Ethiopia</v>
       </c>
     </row>
-    <row r="19" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="19" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB19" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC19" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AC19" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="AD19" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE19" s="4">
         <f t="shared" si="0"/>
@@ -3893,18 +3932,18 @@
         <v>Gabon</v>
       </c>
     </row>
-    <row r="20" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="20" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB20" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC20" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AC20" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="AD20" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE20" s="4">
         <f t="shared" si="0"/>
@@ -3919,18 +3958,18 @@
         <v>Gambia</v>
       </c>
     </row>
-    <row r="21" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="21" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB21" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC21" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AC21" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="AD21" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE21" s="4">
         <f t="shared" si="0"/>
@@ -3945,18 +3984,18 @@
         <v>Ghana</v>
       </c>
     </row>
-    <row r="22" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB22" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC22" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="AC22" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="AD22" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE22" s="4">
         <f t="shared" si="0"/>
@@ -3971,18 +4010,18 @@
         <v>Guinea</v>
       </c>
     </row>
-    <row r="23" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="23" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB23" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC23" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="AC23" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="AD23" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE23" s="4">
         <f t="shared" si="0"/>
@@ -3997,18 +4036,18 @@
         <v>Guinea-Bissau</v>
       </c>
     </row>
-    <row r="24" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="24" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC24" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="AC24" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="AD24" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE24" s="4">
         <f t="shared" si="0"/>
@@ -4023,18 +4062,18 @@
         <v>Kenya</v>
       </c>
     </row>
-    <row r="25" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="25" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB25" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC25" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="AC25" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="AD25" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE25" s="4">
         <f t="shared" si="0"/>
@@ -4049,18 +4088,18 @@
         <v>Lesotho</v>
       </c>
     </row>
-    <row r="26" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="26" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB26" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC26" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="AC26" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="AD26" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE26" s="4">
         <f t="shared" si="0"/>
@@ -4075,18 +4114,18 @@
         <v>Liberia</v>
       </c>
     </row>
-    <row r="27" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="27" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB27" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC27" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="AC27" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="AD27" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE27" s="4">
         <f t="shared" si="0"/>
@@ -4101,18 +4140,18 @@
         <v>Madagascar</v>
       </c>
     </row>
-    <row r="28" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="28" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB28" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC28" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="AC28" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="AD28" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE28" s="4">
         <f t="shared" si="0"/>
@@ -4127,18 +4166,18 @@
         <v>Malawi</v>
       </c>
     </row>
-    <row r="29" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="29" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB29" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC29" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AC29" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="AD29" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE29" s="4">
         <f t="shared" si="0"/>
@@ -4153,18 +4192,18 @@
         <v>Mali</v>
       </c>
     </row>
-    <row r="30" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="30" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB30" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC30" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="AC30" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="AD30" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE30" s="4">
         <f t="shared" si="0"/>
@@ -4179,18 +4218,18 @@
         <v>Mauritania</v>
       </c>
     </row>
-    <row r="31" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="31" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB31" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC31" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="AC31" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="AD31" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE31" s="4">
         <f t="shared" si="0"/>
@@ -4205,18 +4244,18 @@
         <v>Mauritius</v>
       </c>
     </row>
-    <row r="32" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="32" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB32" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC32" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="AC32" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="AD32" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE32" s="4">
         <f t="shared" si="0"/>
@@ -4231,18 +4270,18 @@
         <v>Mozambique</v>
       </c>
     </row>
-    <row r="33" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="33" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB33" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC33" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="AC33" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="AD33" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE33" s="4">
         <f t="shared" si="0"/>
@@ -4257,18 +4296,18 @@
         <v>Namibia</v>
       </c>
     </row>
-    <row r="34" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="34" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA34" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB34" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC34" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="AC34" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="AD34" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE34" s="4">
         <f t="shared" si="0"/>
@@ -4283,18 +4322,18 @@
         <v>Niger</v>
       </c>
     </row>
-    <row r="35" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="35" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB35" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC35" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="AC35" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="AD35" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE35" s="4">
         <f t="shared" si="0"/>
@@ -4309,18 +4348,18 @@
         <v>Nigeria</v>
       </c>
     </row>
-    <row r="36" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="36" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA36" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB36" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC36" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AC36" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="AD36" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE36" s="4">
         <f t="shared" si="0"/>
@@ -4335,18 +4374,18 @@
         <v>Rwanda</v>
       </c>
     </row>
-    <row r="37" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="37" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB37" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC37" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AC37" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="AD37" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE37" s="4">
         <f t="shared" si="0"/>
@@ -4361,18 +4400,18 @@
         <v>Sao Tome and Principe</v>
       </c>
     </row>
-    <row r="38" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="38" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA38" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB38" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC38" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AC38" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="AD38" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE38" s="4">
         <f t="shared" si="0"/>
@@ -4387,18 +4426,18 @@
         <v>Senegal</v>
       </c>
     </row>
-    <row r="39" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="39" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB39" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC39" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AC39" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="AD39" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE39" s="4">
         <f t="shared" si="0"/>
@@ -4413,18 +4452,18 @@
         <v>Seychelles</v>
       </c>
     </row>
-    <row r="40" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="40" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA40" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB40" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC40" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AC40" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="AD40" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE40" s="4">
         <f t="shared" si="0"/>
@@ -4439,18 +4478,18 @@
         <v>Sierra Leone</v>
       </c>
     </row>
-    <row r="41" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="41" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA41" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB41" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC41" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AC41" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="AD41" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE41" s="4">
         <f t="shared" si="0"/>
@@ -4465,18 +4504,18 @@
         <v>South Africa</v>
       </c>
     </row>
-    <row r="42" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="42" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA42" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB42" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="AB42" s="4" t="s">
+      <c r="AC42" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AC42" s="4" t="s">
-        <v>287</v>
-      </c>
       <c r="AD42" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE42" s="4">
         <f t="shared" si="0"/>
@@ -4491,18 +4530,18 @@
         <v>South Sudan</v>
       </c>
     </row>
-    <row r="43" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="43" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA43" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB43" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC43" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AC43" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="AD43" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE43" s="4">
         <f t="shared" si="0"/>
@@ -4517,18 +4556,18 @@
         <v>Swaziland</v>
       </c>
     </row>
-    <row r="44" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="44" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB44" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC44" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AC44" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="AD44" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE44" s="4">
         <f t="shared" si="0"/>
@@ -4543,18 +4582,18 @@
         <v>Togo</v>
       </c>
     </row>
-    <row r="45" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="45" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA45" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC45" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AC45" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="AD45" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE45" s="4">
         <f t="shared" si="0"/>
@@ -4569,18 +4608,18 @@
         <v>Uganda</v>
       </c>
     </row>
-    <row r="46" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="46" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB46" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC46" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="AC46" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="AD46" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE46" s="4">
         <f t="shared" si="0"/>
@@ -4595,18 +4634,18 @@
         <v>United Republic of Tanzania</v>
       </c>
     </row>
-    <row r="47" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="47" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA47" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB47" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC47" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="AC47" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="AD47" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE47" s="4">
         <f t="shared" si="0"/>
@@ -4621,18 +4660,18 @@
         <v>Zambia</v>
       </c>
     </row>
-    <row r="48" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="48" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA48" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB48" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC48" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AC48" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="AD48" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE48" s="4">
         <f t="shared" si="0"/>
@@ -4647,18 +4686,18 @@
         <v>Zimbabwe</v>
       </c>
     </row>
-    <row r="49" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB49" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC49" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AC49" s="4" t="s">
+      <c r="AD49" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="AD49" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="AE49" s="4">
         <f t="shared" si="0"/>
@@ -4673,18 +4712,18 @@
         <v>Antigua and Barbuda</v>
       </c>
     </row>
-    <row r="50" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA50" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB50" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC50" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AC50" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="AD50" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE50" s="4">
         <f t="shared" si="0"/>
@@ -4699,18 +4738,18 @@
         <v>Argentina</v>
       </c>
     </row>
-    <row r="51" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA51" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB51" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AB51" s="4" t="s">
+      <c r="AC51" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AC51" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="AD51" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE51" s="4">
         <f t="shared" si="0"/>
@@ -4725,18 +4764,18 @@
         <v>Bahamas</v>
       </c>
     </row>
-    <row r="52" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA52" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB52" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC52" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="AC52" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="AD52" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE52" s="4">
         <f t="shared" si="0"/>
@@ -4751,18 +4790,18 @@
         <v>Barbados</v>
       </c>
     </row>
-    <row r="53" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA53" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB53" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC53" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="AC53" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="AD53" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE53" s="4">
         <f t="shared" si="0"/>
@@ -4777,18 +4816,18 @@
         <v>Belize</v>
       </c>
     </row>
-    <row r="54" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA54" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB54" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC54" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="AC54" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="AD54" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE54" s="4">
         <f t="shared" si="0"/>
@@ -4803,7 +4842,7 @@
         <v>Bolivia (Plurinational State of)</v>
       </c>
     </row>
-    <row r="57" spans="1:80" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:80" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4831,16 +4870,16 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB57" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC57" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="AC57" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="AD57" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE57" s="4">
         <f t="shared" si="0"/>
@@ -4902,18 +4941,18 @@
       <c r="CA57" s="4"/>
       <c r="CB57" s="4"/>
     </row>
-    <row r="58" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA58" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB58" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC58" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AC58" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="AD58" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE58" s="4">
         <f t="shared" si="0"/>
@@ -4928,18 +4967,18 @@
         <v>Colombia</v>
       </c>
     </row>
-    <row r="59" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA59" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB59" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC59" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="AC59" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="AD59" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE59" s="4">
         <f t="shared" si="0"/>
@@ -4954,18 +4993,18 @@
         <v>Costa Rica</v>
       </c>
     </row>
-    <row r="60" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA60" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB60" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC60" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="AC60" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="AD60" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE60" s="4">
         <f t="shared" si="0"/>
@@ -4980,18 +5019,18 @@
         <v>Cuba</v>
       </c>
     </row>
-    <row r="61" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA61" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB61" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC61" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="AC61" s="4" t="s">
-        <v>323</v>
-      </c>
       <c r="AD61" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE61" s="4">
         <f t="shared" si="0"/>
@@ -5006,18 +5045,18 @@
         <v>Dominica</v>
       </c>
     </row>
-    <row r="62" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA62" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB62" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC62" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="AC62" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="AD62" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE62" s="4">
         <f t="shared" si="0"/>
@@ -5032,18 +5071,18 @@
         <v>Dominican Republic</v>
       </c>
     </row>
-    <row r="63" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA63" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB63" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC63" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="AC63" s="4" t="s">
-        <v>327</v>
-      </c>
       <c r="AD63" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE63" s="4">
         <f t="shared" si="0"/>
@@ -5058,18 +5097,18 @@
         <v>Ecuador</v>
       </c>
     </row>
-    <row r="64" spans="1:80" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="AA64" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB64" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC64" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="AC64" s="4" t="s">
-        <v>329</v>
-      </c>
       <c r="AD64" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE64" s="4">
         <f t="shared" si="0"/>
@@ -5084,18 +5123,18 @@
         <v>El Salvador</v>
       </c>
     </row>
-    <row r="65" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="65" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA65" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB65" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC65" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="AC65" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="AD65" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE65" s="4">
         <f t="shared" si="0"/>
@@ -5110,18 +5149,18 @@
         <v>Grenada</v>
       </c>
     </row>
-    <row r="66" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="66" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA66" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB66" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC66" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="AC66" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="AD66" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE66" s="4">
         <f t="shared" si="0"/>
@@ -5136,18 +5175,18 @@
         <v>Guatemala</v>
       </c>
     </row>
-    <row r="67" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="67" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA67" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB67" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC67" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="AC67" s="4" t="s">
-        <v>335</v>
-      </c>
       <c r="AD67" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE67" s="4">
         <f t="shared" si="0"/>
@@ -5162,18 +5201,18 @@
         <v>Guyana</v>
       </c>
     </row>
-    <row r="68" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="68" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA68" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB68" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC68" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="AC68" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="AD68" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE68" s="4">
         <f t="shared" ref="AE68:AE131" si="1">--ISNUMBER(IFERROR(SEARCH($X$1,AA68,1),""))</f>
@@ -5188,18 +5227,18 @@
         <v>Haiti</v>
       </c>
     </row>
-    <row r="69" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="69" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA69" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB69" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC69" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="AC69" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="AD69" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE69" s="4">
         <f t="shared" si="1"/>
@@ -5214,18 +5253,18 @@
         <v>Honduras</v>
       </c>
     </row>
-    <row r="70" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="70" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA70" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB70" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC70" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="AC70" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="AD70" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE70" s="4">
         <f t="shared" si="1"/>
@@ -5240,18 +5279,18 @@
         <v>Jamaica</v>
       </c>
     </row>
-    <row r="71" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="71" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA71" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB71" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC71" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="AC71" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="AD71" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE71" s="4">
         <f t="shared" si="1"/>
@@ -5266,18 +5305,18 @@
         <v>Mexico</v>
       </c>
     </row>
-    <row r="72" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="72" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA72" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB72" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC72" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="AC72" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="AD72" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE72" s="4">
         <f t="shared" si="1"/>
@@ -5292,18 +5331,18 @@
         <v>Nicaragua</v>
       </c>
     </row>
-    <row r="73" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="73" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA73" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB73" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC73" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="AC73" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="AD73" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE73" s="4">
         <f t="shared" si="1"/>
@@ -5318,18 +5357,18 @@
         <v>Panama</v>
       </c>
     </row>
-    <row r="74" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="74" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA74" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB74" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC74" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="AC74" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="AD74" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE74" s="4">
         <f t="shared" si="1"/>
@@ -5344,18 +5383,18 @@
         <v>Paraguay</v>
       </c>
     </row>
-    <row r="75" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="75" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA75" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB75" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC75" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="AC75" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="AD75" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE75" s="4">
         <f t="shared" si="1"/>
@@ -5370,18 +5409,18 @@
         <v>Peru</v>
       </c>
     </row>
-    <row r="76" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="76" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA76" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB76" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC76" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="AC76" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="AD76" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE76" s="4">
         <f t="shared" si="1"/>
@@ -5396,18 +5435,18 @@
         <v>Saint Kitts and Nevis</v>
       </c>
     </row>
-    <row r="77" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="77" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA77" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB77" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC77" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="AC77" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="AD77" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE77" s="4">
         <f t="shared" si="1"/>
@@ -5422,18 +5461,18 @@
         <v>Saint Lucia</v>
       </c>
     </row>
-    <row r="78" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="78" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA78" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB78" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC78" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="AC78" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="AD78" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE78" s="4">
         <f t="shared" si="1"/>
@@ -5448,18 +5487,18 @@
         <v>Saint Vincent and the Grenadines</v>
       </c>
     </row>
-    <row r="79" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="79" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA79" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB79" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC79" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="AC79" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="AD79" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE79" s="4">
         <f t="shared" si="1"/>
@@ -5474,18 +5513,18 @@
         <v>Suriname</v>
       </c>
     </row>
-    <row r="80" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="80" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA80" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB80" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC80" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="AC80" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="AD80" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE80" s="4">
         <f t="shared" si="1"/>
@@ -5500,18 +5539,18 @@
         <v>Trinidad and Tobago</v>
       </c>
     </row>
-    <row r="81" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="81" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA81" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB81" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC81" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="AC81" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="AD81" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE81" s="4">
         <f t="shared" si="1"/>
@@ -5526,18 +5565,18 @@
         <v>United States of America</v>
       </c>
     </row>
-    <row r="82" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="82" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA82" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB82" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC82" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="AC82" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="AD82" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE82" s="4">
         <f t="shared" si="1"/>
@@ -5552,18 +5591,18 @@
         <v>Uruguay</v>
       </c>
     </row>
-    <row r="83" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="83" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA83" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB83" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC83" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="AC83" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="AD83" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE83" s="4">
         <f t="shared" si="1"/>
@@ -5578,18 +5617,18 @@
         <v>Venezuela (Bolivarian Republic of)</v>
       </c>
     </row>
-    <row r="84" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="84" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA84" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB84" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC84" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="AC84" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="AD84" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE84" s="4">
         <f t="shared" si="1"/>
@@ -5604,18 +5643,18 @@
         <v>Afghanistan</v>
       </c>
     </row>
-    <row r="85" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="85" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA85" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB85" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC85" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="AC85" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="AD85" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE85" s="4">
         <f t="shared" si="1"/>
@@ -5630,18 +5669,18 @@
         <v>Bahrain</v>
       </c>
     </row>
-    <row r="86" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="86" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA86" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB86" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC86" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="AC86" s="4" t="s">
+      <c r="AD86" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="AD86" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="AE86" s="4">
         <f t="shared" si="1"/>
@@ -5656,18 +5695,18 @@
         <v>Djibouti</v>
       </c>
     </row>
-    <row r="87" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="87" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA87" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB87" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC87" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="AC87" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="AD87" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE87" s="4">
         <f t="shared" si="1"/>
@@ -5682,18 +5721,18 @@
         <v>Egypt</v>
       </c>
     </row>
-    <row r="88" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="88" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA88" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB88" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC88" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="AC88" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="AD88" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE88" s="4">
         <f t="shared" si="1"/>
@@ -5708,18 +5747,18 @@
         <v>Iran (Islamic Republic of)</v>
       </c>
     </row>
-    <row r="89" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="89" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA89" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB89" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC89" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="AC89" s="4" t="s">
-        <v>380</v>
-      </c>
       <c r="AD89" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE89" s="4">
         <f t="shared" si="1"/>
@@ -5734,18 +5773,18 @@
         <v>Iraq</v>
       </c>
     </row>
-    <row r="90" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="90" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA90" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB90" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC90" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="AC90" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="AD90" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE90" s="4">
         <f t="shared" si="1"/>
@@ -5760,18 +5799,18 @@
         <v>Jordan</v>
       </c>
     </row>
-    <row r="91" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="91" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA91" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB91" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC91" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AC91" s="4" t="s">
-        <v>384</v>
-      </c>
       <c r="AD91" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE91" s="4">
         <f t="shared" si="1"/>
@@ -5786,18 +5825,18 @@
         <v>Kuwait</v>
       </c>
     </row>
-    <row r="92" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="92" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA92" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB92" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC92" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="AC92" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="AD92" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE92" s="4">
         <f t="shared" si="1"/>
@@ -5812,18 +5851,18 @@
         <v>Lebanon</v>
       </c>
     </row>
-    <row r="93" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="93" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA93" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB93" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC93" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="AC93" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="AD93" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE93" s="4">
         <f t="shared" si="1"/>
@@ -5838,18 +5877,18 @@
         <v>Libya</v>
       </c>
     </row>
-    <row r="94" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="94" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA94" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB94" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC94" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="AC94" s="4" t="s">
-        <v>390</v>
-      </c>
       <c r="AD94" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE94" s="4">
         <f t="shared" si="1"/>
@@ -5864,18 +5903,18 @@
         <v>Morocco</v>
       </c>
     </row>
-    <row r="95" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="95" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA95" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB95" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="AB95" s="4" t="s">
+      <c r="AC95" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="AC95" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="AD95" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE95" s="4">
         <f t="shared" si="1"/>
@@ -5890,18 +5929,18 @@
         <v>Oman</v>
       </c>
     </row>
-    <row r="96" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="96" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA96" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB96" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC96" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="AC96" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="AD96" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE96" s="4">
         <f t="shared" si="1"/>
@@ -5916,18 +5955,18 @@
         <v>Pakistan</v>
       </c>
     </row>
-    <row r="97" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="97" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA97" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB97" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC97" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="AC97" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="AD97" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE97" s="4">
         <f t="shared" si="1"/>
@@ -5942,18 +5981,18 @@
         <v>Palestine</v>
       </c>
     </row>
-    <row r="98" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="98" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA98" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB98" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC98" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="AC98" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="AD98" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE98" s="4">
         <f t="shared" si="1"/>
@@ -5968,18 +6007,18 @@
         <v>Qatar</v>
       </c>
     </row>
-    <row r="99" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="99" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA99" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB99" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="AB99" s="4" t="s">
+      <c r="AC99" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="AC99" s="4" t="s">
-        <v>402</v>
-      </c>
       <c r="AD99" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE99" s="4">
         <f t="shared" si="1"/>
@@ -5994,18 +6033,18 @@
         <v>Saudi Arabia</v>
       </c>
     </row>
-    <row r="100" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="100" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA100" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB100" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC100" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="AC100" s="4" t="s">
-        <v>404</v>
-      </c>
       <c r="AD100" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE100" s="4">
         <f t="shared" si="1"/>
@@ -6020,18 +6059,18 @@
         <v>Somalia</v>
       </c>
     </row>
-    <row r="101" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="101" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA101" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB101" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC101" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="AC101" s="4" t="s">
-        <v>406</v>
-      </c>
       <c r="AD101" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE101" s="4">
         <f t="shared" si="1"/>
@@ -6046,18 +6085,18 @@
         <v>Sudan</v>
       </c>
     </row>
-    <row r="102" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="102" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA102" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB102" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC102" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="AC102" s="4" t="s">
-        <v>408</v>
-      </c>
       <c r="AD102" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE102" s="4">
         <f t="shared" si="1"/>
@@ -6072,18 +6111,18 @@
         <v>Syrian Arab Republic</v>
       </c>
     </row>
-    <row r="103" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="103" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA103" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB103" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC103" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="AC103" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="AD103" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE103" s="4">
         <f t="shared" si="1"/>
@@ -6098,18 +6137,18 @@
         <v>Tunisia</v>
       </c>
     </row>
-    <row r="104" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="104" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA104" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB104" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC104" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="AC104" s="4" t="s">
-        <v>412</v>
-      </c>
       <c r="AD104" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE104" s="4">
         <f t="shared" si="1"/>
@@ -6124,18 +6163,18 @@
         <v>United Arab Emirates</v>
       </c>
     </row>
-    <row r="105" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="105" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA105" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB105" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC105" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="AC105" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="AD105" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE105" s="4">
         <f t="shared" si="1"/>
@@ -6150,18 +6189,18 @@
         <v>Yemen</v>
       </c>
     </row>
-    <row r="106" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="106" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA106" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB106" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC106" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="AC106" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="AD106" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE106" s="4">
         <f t="shared" si="1"/>
@@ -6176,18 +6215,18 @@
         <v>Albania</v>
       </c>
     </row>
-    <row r="107" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="107" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA107" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB107" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC107" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="AC107" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="AD107" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE107" s="4">
         <f t="shared" si="1"/>
@@ -6202,18 +6241,18 @@
         <v>Andorra</v>
       </c>
     </row>
-    <row r="108" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="108" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA108" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB108" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC108" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="AC108" s="4" t="s">
+      <c r="AD108" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="AD108" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="AE108" s="4">
         <f t="shared" si="1"/>
@@ -6228,18 +6267,18 @@
         <v>Armenia</v>
       </c>
     </row>
-    <row r="109" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="109" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA109" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB109" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC109" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="AC109" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="AD109" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE109" s="4">
         <f t="shared" si="1"/>
@@ -6254,18 +6293,18 @@
         <v>Austria</v>
       </c>
     </row>
-    <row r="110" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="110" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA110" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB110" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC110" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="AC110" s="4" t="s">
-        <v>425</v>
-      </c>
       <c r="AD110" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE110" s="4">
         <f t="shared" si="1"/>
@@ -6280,18 +6319,18 @@
         <v>Azerbaijan</v>
       </c>
     </row>
-    <row r="111" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="111" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA111" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB111" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC111" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="AC111" s="4" t="s">
-        <v>427</v>
-      </c>
       <c r="AD111" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE111" s="4">
         <f t="shared" si="1"/>
@@ -6306,18 +6345,18 @@
         <v>Belarus</v>
       </c>
     </row>
-    <row r="112" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="112" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA112" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB112" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC112" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="AC112" s="4" t="s">
-        <v>429</v>
-      </c>
       <c r="AD112" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE112" s="4">
         <f t="shared" si="1"/>
@@ -6332,18 +6371,18 @@
         <v>Belgium</v>
       </c>
     </row>
-    <row r="113" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="113" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA113" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB113" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC113" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="AC113" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="AD113" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE113" s="4">
         <f t="shared" si="1"/>
@@ -6358,18 +6397,18 @@
         <v>Bosnia and Herzegovina</v>
       </c>
     </row>
-    <row r="114" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="114" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA114" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB114" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC114" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="AC114" s="4" t="s">
-        <v>433</v>
-      </c>
       <c r="AD114" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE114" s="4">
         <f t="shared" si="1"/>
@@ -6384,18 +6423,18 @@
         <v>Bulgaria</v>
       </c>
     </row>
-    <row r="115" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="115" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA115" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB115" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC115" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="AC115" s="4" t="s">
-        <v>435</v>
-      </c>
       <c r="AD115" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE115" s="4">
         <f t="shared" si="1"/>
@@ -6410,18 +6449,18 @@
         <v>Croatia</v>
       </c>
     </row>
-    <row r="116" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="116" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA116" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB116" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC116" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="AC116" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="AD116" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE116" s="4">
         <f t="shared" si="1"/>
@@ -6436,18 +6475,18 @@
         <v>Cyprus</v>
       </c>
     </row>
-    <row r="117" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="117" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA117" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB117" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC117" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="AC117" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="AD117" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE117" s="4">
         <f t="shared" si="1"/>
@@ -6462,18 +6501,18 @@
         <v>Czech Republic</v>
       </c>
     </row>
-    <row r="118" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="118" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA118" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB118" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC118" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="AC118" s="4" t="s">
-        <v>441</v>
-      </c>
       <c r="AD118" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE118" s="4">
         <f t="shared" si="1"/>
@@ -6488,18 +6527,18 @@
         <v>Denmark</v>
       </c>
     </row>
-    <row r="119" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="119" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA119" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB119" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC119" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="AC119" s="4" t="s">
-        <v>443</v>
-      </c>
       <c r="AD119" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE119" s="4">
         <f t="shared" si="1"/>
@@ -6514,18 +6553,18 @@
         <v>Estonia</v>
       </c>
     </row>
-    <row r="120" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="120" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA120" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB120" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC120" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="AC120" s="4" t="s">
-        <v>445</v>
-      </c>
       <c r="AD120" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE120" s="4">
         <f t="shared" si="1"/>
@@ -6540,18 +6579,18 @@
         <v>Finland</v>
       </c>
     </row>
-    <row r="121" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="121" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA121" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB121" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="AC121" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="AC121" s="4" t="s">
-        <v>447</v>
-      </c>
       <c r="AD121" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE121" s="4">
         <f t="shared" si="1"/>
@@ -6566,18 +6605,18 @@
         <v>France</v>
       </c>
     </row>
-    <row r="122" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="122" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA122" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB122" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC122" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="AC122" s="4" t="s">
-        <v>449</v>
-      </c>
       <c r="AD122" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE122" s="4">
         <f t="shared" si="1"/>
@@ -6592,18 +6631,18 @@
         <v>Georgia</v>
       </c>
     </row>
-    <row r="123" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="123" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA123" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB123" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC123" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="AC123" s="4" t="s">
-        <v>451</v>
-      </c>
       <c r="AD123" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE123" s="4">
         <f t="shared" si="1"/>
@@ -6618,18 +6657,18 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="124" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="124" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA124" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB124" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC124" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="AC124" s="4" t="s">
-        <v>453</v>
-      </c>
       <c r="AD124" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE124" s="4">
         <f t="shared" si="1"/>
@@ -6644,18 +6683,18 @@
         <v>Greece</v>
       </c>
     </row>
-    <row r="125" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="125" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA125" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB125" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC125" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="AC125" s="4" t="s">
-        <v>455</v>
-      </c>
       <c r="AD125" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE125" s="4">
         <f t="shared" si="1"/>
@@ -6670,18 +6709,18 @@
         <v>Hungary</v>
       </c>
     </row>
-    <row r="126" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="126" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA126" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB126" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC126" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="AC126" s="4" t="s">
-        <v>457</v>
-      </c>
       <c r="AD126" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE126" s="4">
         <f t="shared" si="1"/>
@@ -6696,18 +6735,18 @@
         <v>Iceland</v>
       </c>
     </row>
-    <row r="127" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="127" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA127" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB127" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC127" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="AC127" s="4" t="s">
-        <v>459</v>
-      </c>
       <c r="AD127" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE127" s="4">
         <f t="shared" si="1"/>
@@ -6722,18 +6761,18 @@
         <v>Ireland</v>
       </c>
     </row>
-    <row r="128" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="128" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA128" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB128" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="AC128" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="AC128" s="4" t="s">
-        <v>461</v>
-      </c>
       <c r="AD128" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE128" s="4">
         <f t="shared" si="1"/>
@@ -6748,18 +6787,18 @@
         <v>Israel</v>
       </c>
     </row>
-    <row r="129" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="129" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA129" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB129" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC129" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="AC129" s="4" t="s">
-        <v>463</v>
-      </c>
       <c r="AD129" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE129" s="4">
         <f t="shared" si="1"/>
@@ -6774,18 +6813,18 @@
         <v>Italy</v>
       </c>
     </row>
-    <row r="130" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="130" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA130" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB130" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC130" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="AC130" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="AD130" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE130" s="4">
         <f t="shared" si="1"/>
@@ -6800,18 +6839,18 @@
         <v>Kazakhstan</v>
       </c>
     </row>
-    <row r="131" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="131" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA131" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB131" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC131" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="AC131" s="4" t="s">
-        <v>467</v>
-      </c>
       <c r="AD131" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE131" s="4">
         <f t="shared" si="1"/>
@@ -6826,18 +6865,18 @@
         <v>Kyrgyzstan</v>
       </c>
     </row>
-    <row r="132" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="132" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA132" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB132" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="AC132" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="AC132" s="4" t="s">
-        <v>469</v>
-      </c>
       <c r="AD132" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE132" s="4">
         <f t="shared" ref="AE132:AE195" si="2">--ISNUMBER(IFERROR(SEARCH($X$1,AA132,1),""))</f>
@@ -6852,18 +6891,18 @@
         <v>Latvia</v>
       </c>
     </row>
-    <row r="133" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="133" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA133" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB133" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC133" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="AC133" s="4" t="s">
-        <v>471</v>
-      </c>
       <c r="AD133" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE133" s="4">
         <f t="shared" si="2"/>
@@ -6878,18 +6917,18 @@
         <v>Lithuania</v>
       </c>
     </row>
-    <row r="134" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="134" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA134" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB134" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC134" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="AC134" s="4" t="s">
-        <v>473</v>
-      </c>
       <c r="AD134" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE134" s="4">
         <f t="shared" si="2"/>
@@ -6904,18 +6943,18 @@
         <v>Luxembourg</v>
       </c>
     </row>
-    <row r="135" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="135" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA135" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB135" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC135" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="AC135" s="4" t="s">
-        <v>475</v>
-      </c>
       <c r="AD135" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE135" s="4">
         <f t="shared" si="2"/>
@@ -6930,18 +6969,18 @@
         <v>Malta</v>
       </c>
     </row>
-    <row r="136" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="136" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA136" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB136" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC136" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="AC136" s="4" t="s">
-        <v>477</v>
-      </c>
       <c r="AD136" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE136" s="4">
         <f t="shared" si="2"/>
@@ -6956,18 +6995,18 @@
         <v>Monaco</v>
       </c>
     </row>
-    <row r="137" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="137" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA137" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB137" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC137" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="AC137" s="4" t="s">
-        <v>479</v>
-      </c>
       <c r="AD137" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE137" s="4">
         <f t="shared" si="2"/>
@@ -6982,18 +7021,18 @@
         <v>Montenegro</v>
       </c>
     </row>
-    <row r="138" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="138" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA138" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB138" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC138" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="AC138" s="4" t="s">
-        <v>481</v>
-      </c>
       <c r="AD138" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE138" s="4">
         <f t="shared" si="2"/>
@@ -7008,18 +7047,18 @@
         <v>Netherlands</v>
       </c>
     </row>
-    <row r="139" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="139" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA139" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB139" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC139" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="AC139" s="4" t="s">
-        <v>483</v>
-      </c>
       <c r="AD139" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE139" s="4">
         <f t="shared" si="2"/>
@@ -7034,18 +7073,18 @@
         <v>Norway</v>
       </c>
     </row>
-    <row r="140" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="140" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA140" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB140" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC140" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="AC140" s="4" t="s">
-        <v>485</v>
-      </c>
       <c r="AD140" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE140" s="4">
         <f t="shared" si="2"/>
@@ -7060,18 +7099,18 @@
         <v>Poland</v>
       </c>
     </row>
-    <row r="141" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="141" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA141" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB141" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC141" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="AC141" s="4" t="s">
-        <v>487</v>
-      </c>
       <c r="AD141" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE141" s="4">
         <f t="shared" si="2"/>
@@ -7086,18 +7125,18 @@
         <v>Portugal</v>
       </c>
     </row>
-    <row r="142" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="142" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA142" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB142" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC142" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="AC142" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="AD142" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE142" s="4">
         <f t="shared" si="2"/>
@@ -7112,18 +7151,18 @@
         <v>Republic of Moldova</v>
       </c>
     </row>
-    <row r="143" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="143" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA143" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB143" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC143" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="AC143" s="4" t="s">
-        <v>491</v>
-      </c>
       <c r="AD143" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE143" s="4">
         <f t="shared" si="2"/>
@@ -7138,18 +7177,18 @@
         <v>Romania</v>
       </c>
     </row>
-    <row r="144" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="144" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA144" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB144" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC144" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="AC144" s="4" t="s">
-        <v>493</v>
-      </c>
       <c r="AD144" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE144" s="4">
         <f t="shared" si="2"/>
@@ -7164,18 +7203,18 @@
         <v>Russian Federation</v>
       </c>
     </row>
-    <row r="145" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="145" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA145" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB145" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC145" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="AC145" s="4" t="s">
-        <v>495</v>
-      </c>
       <c r="AD145" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE145" s="4">
         <f t="shared" si="2"/>
@@ -7190,18 +7229,18 @@
         <v>San Marino</v>
       </c>
     </row>
-    <row r="146" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="146" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA146" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB146" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC146" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="AC146" s="4" t="s">
-        <v>497</v>
-      </c>
       <c r="AD146" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE146" s="4">
         <f t="shared" si="2"/>
@@ -7216,18 +7255,18 @@
         <v>Serbia</v>
       </c>
     </row>
-    <row r="147" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="147" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA147" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB147" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC147" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="AC147" s="4" t="s">
-        <v>499</v>
-      </c>
       <c r="AD147" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE147" s="4">
         <f t="shared" si="2"/>
@@ -7242,18 +7281,18 @@
         <v>Slovakia</v>
       </c>
     </row>
-    <row r="148" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="148" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA148" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB148" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC148" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="AC148" s="4" t="s">
-        <v>501</v>
-      </c>
       <c r="AD148" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE148" s="4">
         <f t="shared" si="2"/>
@@ -7268,18 +7307,18 @@
         <v>Slovenia</v>
       </c>
     </row>
-    <row r="149" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="149" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA149" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB149" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC149" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="AC149" s="4" t="s">
-        <v>503</v>
-      </c>
       <c r="AD149" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE149" s="4">
         <f t="shared" si="2"/>
@@ -7294,18 +7333,18 @@
         <v>Spain</v>
       </c>
     </row>
-    <row r="150" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="150" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA150" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB150" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="AC150" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="AC150" s="4" t="s">
-        <v>505</v>
-      </c>
       <c r="AD150" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE150" s="4">
         <f t="shared" si="2"/>
@@ -7320,18 +7359,18 @@
         <v>Sweden</v>
       </c>
     </row>
-    <row r="151" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="151" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA151" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB151" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC151" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="AC151" s="4" t="s">
-        <v>507</v>
-      </c>
       <c r="AD151" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE151" s="4">
         <f t="shared" si="2"/>
@@ -7346,18 +7385,18 @@
         <v>Switzerland</v>
       </c>
     </row>
-    <row r="152" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="152" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA152" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB152" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="AC152" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="AC152" s="4" t="s">
-        <v>509</v>
-      </c>
       <c r="AD152" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE152" s="4">
         <f t="shared" si="2"/>
@@ -7372,18 +7411,18 @@
         <v>Tajikistan</v>
       </c>
     </row>
-    <row r="153" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="153" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA153" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB153" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC153" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="AC153" s="4" t="s">
-        <v>511</v>
-      </c>
       <c r="AD153" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE153" s="4">
         <f t="shared" si="2"/>
@@ -7398,18 +7437,18 @@
         <v>The former Yugoslav republic of Macedonia</v>
       </c>
     </row>
-    <row r="154" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="154" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA154" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB154" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC154" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="AC154" s="4" t="s">
-        <v>513</v>
-      </c>
       <c r="AD154" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE154" s="4">
         <f t="shared" si="2"/>
@@ -7424,18 +7463,18 @@
         <v>Turkey</v>
       </c>
     </row>
-    <row r="155" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="155" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA155" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB155" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="AB155" s="4" t="s">
+      <c r="AC155" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="AC155" s="4" t="s">
-        <v>516</v>
-      </c>
       <c r="AD155" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE155" s="4">
         <f t="shared" si="2"/>
@@ -7450,18 +7489,18 @@
         <v>Turkmenistan</v>
       </c>
     </row>
-    <row r="156" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="156" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA156" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB156" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC156" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="AC156" s="4" t="s">
-        <v>518</v>
-      </c>
       <c r="AD156" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE156" s="4">
         <f t="shared" si="2"/>
@@ -7476,18 +7515,18 @@
         <v>Ukraine</v>
       </c>
     </row>
-    <row r="157" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="157" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA157" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB157" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="AC157" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="AC157" s="4" t="s">
-        <v>520</v>
-      </c>
       <c r="AD157" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE157" s="4">
         <f t="shared" si="2"/>
@@ -7502,18 +7541,18 @@
         <v>United Kingdom of Great Britain and Northern Ireland</v>
       </c>
     </row>
-    <row r="158" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="158" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA158" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB158" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC158" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="AC158" s="4" t="s">
-        <v>522</v>
-      </c>
       <c r="AD158" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE158" s="4">
         <f t="shared" si="2"/>
@@ -7528,18 +7567,18 @@
         <v>Uzbekistan</v>
       </c>
     </row>
-    <row r="159" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="159" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA159" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB159" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="AB159" s="4" t="s">
+      <c r="AC159" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="AC159" s="4" t="s">
-        <v>525</v>
-      </c>
       <c r="AD159" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE159" s="4">
         <f t="shared" si="2"/>
@@ -7554,18 +7593,18 @@
         <v>American Samoa</v>
       </c>
     </row>
-    <row r="160" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="160" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA160" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB160" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC160" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="AC160" s="4" t="s">
-        <v>527</v>
-      </c>
       <c r="AD160" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AE160" s="4">
         <f t="shared" si="2"/>
@@ -7580,18 +7619,18 @@
         <v>Anguilla</v>
       </c>
     </row>
-    <row r="161" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="161" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA161" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB161" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="AB161" s="4" t="s">
+      <c r="AC161" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="AC161" s="4" t="s">
+      <c r="AD161" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="AD161" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="AE161" s="4">
         <f t="shared" si="2"/>
@@ -7606,18 +7645,18 @@
         <v>Aruba</v>
       </c>
     </row>
-    <row r="162" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="162" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA162" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB162" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="AB162" s="4" t="s">
+      <c r="AC162" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="AC162" s="4" t="s">
-        <v>534</v>
-      </c>
       <c r="AD162" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE162" s="4">
         <f t="shared" si="2"/>
@@ -7632,18 +7671,18 @@
         <v>Bermuda</v>
       </c>
     </row>
-    <row r="163" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="163" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA163" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB163" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="AB163" s="4" t="s">
+      <c r="AC163" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="AC163" s="4" t="s">
-        <v>537</v>
-      </c>
       <c r="AD163" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE163" s="4">
         <f t="shared" si="2"/>
@@ -7658,18 +7697,18 @@
         <v>Bonaire, Saint Eustatius and Saba</v>
       </c>
     </row>
-    <row r="164" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="164" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA164" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB164" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="AB164" s="4" t="s">
+      <c r="AC164" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="AC164" s="4" t="s">
-        <v>540</v>
-      </c>
       <c r="AD164" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE164" s="4">
         <f t="shared" si="2"/>
@@ -7684,18 +7723,18 @@
         <v>British Virgin Islands</v>
       </c>
     </row>
-    <row r="165" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="165" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA165" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB165" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="AB165" s="4" t="s">
+      <c r="AC165" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="AC165" s="4" t="s">
-        <v>543</v>
-      </c>
       <c r="AD165" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE165" s="4">
         <f t="shared" si="2"/>
@@ -7710,18 +7749,18 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="166" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="166" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA166" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB166" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="AB166" s="4" t="s">
+      <c r="AC166" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="AC166" s="4" t="s">
-        <v>546</v>
-      </c>
       <c r="AD166" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE166" s="4">
         <f t="shared" si="2"/>
@@ -7736,18 +7775,18 @@
         <v>China, Hong Kong Special Administrative Region</v>
       </c>
     </row>
-    <row r="167" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="167" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA167" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="AB167" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="AB167" s="4" t="s">
+      <c r="AC167" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="AC167" s="4" t="s">
-        <v>549</v>
-      </c>
       <c r="AD167" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE167" s="4">
         <f t="shared" si="2"/>
@@ -7762,18 +7801,18 @@
         <v>China, Macao Special Administrative Region</v>
       </c>
     </row>
-    <row r="168" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="168" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA168" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB168" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="AB168" s="4" t="s">
+      <c r="AC168" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="AC168" s="4" t="s">
-        <v>552</v>
-      </c>
       <c r="AD168" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE168" s="4">
         <f t="shared" si="2"/>
@@ -7788,18 +7827,18 @@
         <v>China: Province of Taiwan only</v>
       </c>
     </row>
-    <row r="169" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="169" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA169" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="AB169" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="AB169" s="4" t="s">
+      <c r="AC169" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="AC169" s="4" t="s">
-        <v>555</v>
-      </c>
       <c r="AD169" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE169" s="4">
         <f t="shared" si="2"/>
@@ -7814,18 +7853,18 @@
         <v>Curacao</v>
       </c>
     </row>
-    <row r="170" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="170" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA170" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="AB170" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="AB170" s="4" t="s">
+      <c r="AC170" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="AC170" s="4" t="s">
-        <v>558</v>
-      </c>
       <c r="AD170" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE170" s="4">
         <f t="shared" si="2"/>
@@ -7840,18 +7879,18 @@
         <v>Czechoslovakia, Former</v>
       </c>
     </row>
-    <row r="171" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="171" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA171" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB171" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="AB171" s="4" t="s">
+      <c r="AC171" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="AC171" s="4" t="s">
-        <v>561</v>
-      </c>
       <c r="AD171" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE171" s="4">
         <f t="shared" si="2"/>
@@ -7866,18 +7905,18 @@
         <v>Falkland Islands (Malvinas)</v>
       </c>
     </row>
-    <row r="172" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="172" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA172" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB172" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="AB172" s="4" t="s">
+      <c r="AC172" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="AC172" s="4" t="s">
-        <v>564</v>
-      </c>
       <c r="AD172" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE172" s="4">
         <f t="shared" si="2"/>
@@ -7892,18 +7931,18 @@
         <v>Faroe Islands</v>
       </c>
     </row>
-    <row r="173" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="173" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA173" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="AB173" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="AB173" s="4" t="s">
+      <c r="AC173" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="AC173" s="4" t="s">
-        <v>567</v>
-      </c>
       <c r="AD173" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE173" s="4">
         <f t="shared" si="2"/>
@@ -7918,18 +7957,18 @@
         <v>French Guiana</v>
       </c>
     </row>
-    <row r="174" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="174" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA174" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="AB174" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="AB174" s="4" t="s">
+      <c r="AC174" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="AC174" s="4" t="s">
-        <v>570</v>
-      </c>
       <c r="AD174" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE174" s="4">
         <f t="shared" si="2"/>
@@ -7944,18 +7983,18 @@
         <v>French Polynesia</v>
       </c>
     </row>
-    <row r="175" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="175" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA175" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB175" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="AB175" s="4" t="s">
+      <c r="AC175" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="AC175" s="4" t="s">
-        <v>573</v>
-      </c>
       <c r="AD175" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE175" s="4">
         <f t="shared" si="2"/>
@@ -7970,18 +8009,18 @@
         <v>Germany, Former Democratic Republic</v>
       </c>
     </row>
-    <row r="176" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="176" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA176" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB176" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="AB176" s="4" t="s">
+      <c r="AC176" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="AC176" s="4" t="s">
-        <v>576</v>
-      </c>
       <c r="AD176" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE176" s="4">
         <f t="shared" si="2"/>
@@ -7996,18 +8035,18 @@
         <v>Germany, Former Federal Republic</v>
       </c>
     </row>
-    <row r="177" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="177" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA177" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="AB177" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="AB177" s="4" t="s">
+      <c r="AC177" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="AC177" s="4" t="s">
-        <v>579</v>
-      </c>
       <c r="AD177" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE177" s="4">
         <f t="shared" si="2"/>
@@ -8022,18 +8061,18 @@
         <v>Germany, West Berlin</v>
       </c>
     </row>
-    <row r="178" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="178" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA178" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="AB178" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="AB178" s="4" t="s">
+      <c r="AC178" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="AC178" s="4" t="s">
-        <v>582</v>
-      </c>
       <c r="AD178" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE178" s="4">
         <f t="shared" si="2"/>
@@ -8048,18 +8087,18 @@
         <v>Gibraltar</v>
       </c>
     </row>
-    <row r="179" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="179" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA179" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="AB179" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="AB179" s="4" t="s">
+      <c r="AC179" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="AC179" s="4" t="s">
-        <v>585</v>
-      </c>
       <c r="AD179" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE179" s="4">
         <f t="shared" si="2"/>
@@ -8074,18 +8113,18 @@
         <v>Greenland</v>
       </c>
     </row>
-    <row r="180" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="180" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA180" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB180" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="AB180" s="4" t="s">
+      <c r="AC180" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="AC180" s="4" t="s">
-        <v>588</v>
-      </c>
       <c r="AD180" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE180" s="4">
         <f t="shared" si="2"/>
@@ -8100,18 +8139,18 @@
         <v>Guadeloupe</v>
       </c>
     </row>
-    <row r="181" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="181" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA181" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB181" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="AB181" s="4" t="s">
+      <c r="AC181" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="AC181" s="4" t="s">
-        <v>591</v>
-      </c>
       <c r="AD181" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE181" s="4">
         <f t="shared" si="2"/>
@@ -8126,18 +8165,18 @@
         <v>Guam</v>
       </c>
     </row>
-    <row r="182" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="182" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA182" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB182" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="AB182" s="4" t="s">
+      <c r="AC182" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="AC182" s="4" t="s">
-        <v>594</v>
-      </c>
       <c r="AD182" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE182" s="4">
         <f t="shared" si="2"/>
@@ -8152,18 +8191,18 @@
         <v>Liechtenstein</v>
       </c>
     </row>
-    <row r="183" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="183" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA183" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="AB183" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="AB183" s="4" t="s">
+      <c r="AC183" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="AC183" s="4" t="s">
-        <v>597</v>
-      </c>
       <c r="AD183" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE183" s="4">
         <f t="shared" si="2"/>
@@ -8178,18 +8217,18 @@
         <v>Martinique</v>
       </c>
     </row>
-    <row r="184" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="184" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA184" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB184" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="AB184" s="4" t="s">
+      <c r="AC184" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="AC184" s="4" t="s">
-        <v>600</v>
-      </c>
       <c r="AD184" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE184" s="4">
         <f t="shared" si="2"/>
@@ -8204,18 +8243,18 @@
         <v>Mayotte</v>
       </c>
     </row>
-    <row r="185" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="185" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA185" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB185" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="AB185" s="4" t="s">
+      <c r="AC185" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="AC185" s="4" t="s">
-        <v>603</v>
-      </c>
       <c r="AD185" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE185" s="4">
         <f t="shared" si="2"/>
@@ -8230,18 +8269,18 @@
         <v>Montserrat</v>
       </c>
     </row>
-    <row r="186" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="186" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA186" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB186" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="AB186" s="4" t="s">
+      <c r="AC186" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="AC186" s="4" t="s">
-        <v>606</v>
-      </c>
       <c r="AD186" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE186" s="4">
         <f t="shared" si="2"/>
@@ -8256,18 +8295,18 @@
         <v>Netherlands Antilles</v>
       </c>
     </row>
-    <row r="187" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="187" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA187" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB187" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="AB187" s="4" t="s">
+      <c r="AC187" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="AC187" s="4" t="s">
-        <v>609</v>
-      </c>
       <c r="AD187" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE187" s="4">
         <f t="shared" si="2"/>
@@ -8282,18 +8321,18 @@
         <v>New Caledonia</v>
       </c>
     </row>
-    <row r="188" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="188" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA188" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB188" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="AB188" s="4" t="s">
+      <c r="AC188" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="AC188" s="4" t="s">
-        <v>612</v>
-      </c>
       <c r="AD188" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE188" s="4">
         <f t="shared" si="2"/>
@@ -8308,18 +8347,18 @@
         <v>Norfolk Island</v>
       </c>
     </row>
-    <row r="189" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="189" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA189" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB189" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="AB189" s="4" t="s">
+      <c r="AC189" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="AC189" s="4" t="s">
-        <v>615</v>
-      </c>
       <c r="AD189" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE189" s="4">
         <f t="shared" si="2"/>
@@ -8334,18 +8373,18 @@
         <v>Northern Mariana Islands</v>
       </c>
     </row>
-    <row r="190" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="190" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA190" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB190" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="AB190" s="4" t="s">
+      <c r="AC190" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="AC190" s="4" t="s">
-        <v>618</v>
-      </c>
       <c r="AD190" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE190" s="4">
         <f t="shared" si="2"/>
@@ -8360,18 +8399,18 @@
         <v>Pitcairn Island</v>
       </c>
     </row>
-    <row r="191" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="191" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA191" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB191" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="AB191" s="4" t="s">
+      <c r="AC191" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="AC191" s="4" t="s">
-        <v>621</v>
-      </c>
       <c r="AD191" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE191" s="4">
         <f t="shared" si="2"/>
@@ -8386,18 +8425,18 @@
         <v>Puerto Rico</v>
       </c>
     </row>
-    <row r="192" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="192" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA192" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB192" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="AB192" s="4" t="s">
+      <c r="AC192" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="AC192" s="4" t="s">
-        <v>624</v>
-      </c>
       <c r="AD192" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE192" s="4">
         <f t="shared" si="2"/>
@@ -8412,18 +8451,18 @@
         <v>Rodrigues</v>
       </c>
     </row>
-    <row r="193" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="193" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA193" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB193" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="AB193" s="4" t="s">
+      <c r="AC193" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="AC193" s="4" t="s">
-        <v>627</v>
-      </c>
       <c r="AD193" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE193" s="4">
         <f t="shared" si="2"/>
@@ -8438,18 +8477,18 @@
         <v>Rï¿½union</v>
       </c>
     </row>
-    <row r="194" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="194" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA194" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB194" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="AB194" s="4" t="s">
+      <c r="AC194" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="AC194" s="4" t="s">
-        <v>630</v>
-      </c>
       <c r="AD194" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE194" s="4">
         <f t="shared" si="2"/>
@@ -8464,18 +8503,18 @@
         <v>Ryu Kyu Islands</v>
       </c>
     </row>
-    <row r="195" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="195" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA195" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB195" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="AB195" s="4" t="s">
+      <c r="AC195" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="AC195" s="4" t="s">
-        <v>633</v>
-      </c>
       <c r="AD195" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE195" s="4">
         <f t="shared" si="2"/>
@@ -8490,18 +8529,18 @@
         <v>Saint Helena</v>
       </c>
     </row>
-    <row r="196" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="196" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA196" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB196" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="AB196" s="4" t="s">
+      <c r="AC196" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="AC196" s="4" t="s">
-        <v>636</v>
-      </c>
       <c r="AD196" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE196" s="4">
         <f t="shared" ref="AE196:AE250" si="3">--ISNUMBER(IFERROR(SEARCH($X$1,AA196,1),""))</f>
@@ -8516,18 +8555,18 @@
         <v>Saint Pierre and Miquelon</v>
       </c>
     </row>
-    <row r="197" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="197" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA197" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB197" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="AB197" s="4" t="s">
+      <c r="AC197" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="AC197" s="4" t="s">
-        <v>639</v>
-      </c>
       <c r="AD197" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE197" s="4">
         <f t="shared" si="3"/>
@@ -8542,18 +8581,18 @@
         <v>Serbia and Montenegro, Former</v>
       </c>
     </row>
-    <row r="198" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="198" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA198" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB198" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="AB198" s="4" t="s">
+      <c r="AC198" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="AC198" s="4" t="s">
-        <v>642</v>
-      </c>
       <c r="AD198" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE198" s="4">
         <f t="shared" si="3"/>
@@ -8568,18 +8607,18 @@
         <v>Sint Maarten (Dutch part)</v>
       </c>
     </row>
-    <row r="199" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="199" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA199" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB199" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="AB199" s="4" t="s">
+      <c r="AC199" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="AC199" s="4" t="s">
-        <v>645</v>
-      </c>
       <c r="AD199" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE199" s="4">
         <f t="shared" si="3"/>
@@ -8594,18 +8633,18 @@
         <v>Sudan (former)</v>
       </c>
     </row>
-    <row r="200" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="200" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA200" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB200" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="AB200" s="4" t="s">
+      <c r="AC200" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="AC200" s="4" t="s">
-        <v>648</v>
-      </c>
       <c r="AD200" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE200" s="4">
         <f t="shared" si="3"/>
@@ -8620,18 +8659,18 @@
         <v>The former state union Serbia and Montenegro</v>
       </c>
     </row>
-    <row r="201" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="201" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA201" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB201" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="AB201" s="4" t="s">
+      <c r="AC201" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="AC201" s="4" t="s">
-        <v>651</v>
-      </c>
       <c r="AD201" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE201" s="4">
         <f t="shared" si="3"/>
@@ -8646,18 +8685,18 @@
         <v>Tokelau</v>
       </c>
     </row>
-    <row r="202" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="202" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA202" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB202" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="AB202" s="4" t="s">
+      <c r="AC202" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="AC202" s="4" t="s">
-        <v>654</v>
-      </c>
       <c r="AD202" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE202" s="4">
         <f t="shared" si="3"/>
@@ -8672,18 +8711,18 @@
         <v>Turks and Caicos Islands</v>
       </c>
     </row>
-    <row r="203" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="203" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA203" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB203" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="AB203" s="4" t="s">
+      <c r="AC203" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="AC203" s="4" t="s">
-        <v>657</v>
-      </c>
       <c r="AD203" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE203" s="4">
         <f t="shared" si="3"/>
@@ -8698,18 +8737,18 @@
         <v>United Kingdom, England and Wales</v>
       </c>
     </row>
-    <row r="204" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="204" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA204" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB204" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="AB204" s="4" t="s">
+      <c r="AC204" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="AC204" s="4" t="s">
-        <v>660</v>
-      </c>
       <c r="AD204" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE204" s="4">
         <f t="shared" si="3"/>
@@ -8724,18 +8763,18 @@
         <v>United Kingdom, Northern Ireland</v>
       </c>
     </row>
-    <row r="205" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="205" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA205" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB205" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="AB205" s="4" t="s">
+      <c r="AC205" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="AC205" s="4" t="s">
-        <v>663</v>
-      </c>
       <c r="AD205" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE205" s="4">
         <f t="shared" si="3"/>
@@ -8750,18 +8789,18 @@
         <v>United Kingdom, Scotland</v>
       </c>
     </row>
-    <row r="206" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="206" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA206" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB206" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="AB206" s="4" t="s">
+      <c r="AC206" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="AC206" s="4" t="s">
-        <v>666</v>
-      </c>
       <c r="AD206" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE206" s="4">
         <f t="shared" si="3"/>
@@ -8776,18 +8815,18 @@
         <v>USSR, Former</v>
       </c>
     </row>
-    <row r="207" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="207" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA207" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB207" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="AB207" s="4" t="s">
+      <c r="AC207" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="AC207" s="4" t="s">
-        <v>669</v>
-      </c>
       <c r="AD207" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE207" s="4">
         <f t="shared" si="3"/>
@@ -8802,18 +8841,18 @@
         <v>Virgin Islands (USA)</v>
       </c>
     </row>
-    <row r="208" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="208" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA208" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="AB208" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="AB208" s="4" t="s">
+      <c r="AC208" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="AC208" s="4" t="s">
-        <v>672</v>
-      </c>
       <c r="AD208" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE208" s="4">
         <f t="shared" si="3"/>
@@ -8828,18 +8867,18 @@
         <v>Wallis and Futuna Islands</v>
       </c>
     </row>
-    <row r="209" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="209" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA209" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="AB209" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="AB209" s="4" t="s">
+      <c r="AC209" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="AC209" s="4" t="s">
-        <v>675</v>
-      </c>
       <c r="AD209" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE209" s="4">
         <f t="shared" si="3"/>
@@ -8854,18 +8893,18 @@
         <v>West Bank</v>
       </c>
     </row>
-    <row r="210" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="210" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA210" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="AB210" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="AB210" s="4" t="s">
+      <c r="AC210" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="AC210" s="4" t="s">
-        <v>678</v>
-      </c>
       <c r="AD210" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE210" s="4">
         <f t="shared" si="3"/>
@@ -8880,18 +8919,18 @@
         <v>Yugoslavia, Former</v>
       </c>
     </row>
-    <row r="211" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="211" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA211" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB211" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="AB211" s="4" t="s">
+      <c r="AC211" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="AC211" s="4" t="s">
-        <v>681</v>
-      </c>
       <c r="AD211" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE211" s="4">
         <f t="shared" si="3"/>
@@ -8906,18 +8945,18 @@
         <v>Bangladesh</v>
       </c>
     </row>
-    <row r="212" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="212" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA212" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB212" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="AB212" s="4" t="s">
+      <c r="AC212" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="AC212" s="4" t="s">
-        <v>684</v>
-      </c>
       <c r="AD212" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AE212" s="4">
         <f t="shared" si="3"/>
@@ -8932,18 +8971,18 @@
         <v>Bhutan</v>
       </c>
     </row>
-    <row r="213" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="213" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA213" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB213" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AC213" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="AC213" s="4" t="s">
+      <c r="AD213" s="4" t="s">
         <v>686</v>
-      </c>
-      <c r="AD213" s="4" t="s">
-        <v>687</v>
       </c>
       <c r="AE213" s="4">
         <f t="shared" si="3"/>
@@ -8958,18 +8997,18 @@
         <v>Democratic People's Republic of Korea</v>
       </c>
     </row>
-    <row r="214" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="214" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA214" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB214" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AC214" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="AC214" s="4" t="s">
-        <v>689</v>
-      </c>
       <c r="AD214" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE214" s="4">
         <f t="shared" si="3"/>
@@ -8984,18 +9023,18 @@
         <v>India</v>
       </c>
     </row>
-    <row r="215" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="215" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA215" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB215" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="AC215" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="AC215" s="4" t="s">
-        <v>691</v>
-      </c>
       <c r="AD215" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE215" s="4">
         <f t="shared" si="3"/>
@@ -9010,18 +9049,18 @@
         <v>Indonesia</v>
       </c>
     </row>
-    <row r="216" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="216" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA216" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB216" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="AC216" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="AC216" s="4" t="s">
-        <v>693</v>
-      </c>
       <c r="AD216" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE216" s="4">
         <f t="shared" si="3"/>
@@ -9036,18 +9075,18 @@
         <v>Maldives</v>
       </c>
     </row>
-    <row r="217" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="217" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA217" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB217" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AC217" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="AC217" s="4" t="s">
-        <v>695</v>
-      </c>
       <c r="AD217" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE217" s="4">
         <f t="shared" si="3"/>
@@ -9062,18 +9101,18 @@
         <v>Myanmar</v>
       </c>
     </row>
-    <row r="218" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="218" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA218" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB218" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="AC218" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="AC218" s="4" t="s">
-        <v>697</v>
-      </c>
       <c r="AD218" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE218" s="4">
         <f t="shared" si="3"/>
@@ -9088,18 +9127,18 @@
         <v>Nepal</v>
       </c>
     </row>
-    <row r="219" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="219" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA219" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB219" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="AC219" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="AC219" s="4" t="s">
-        <v>699</v>
-      </c>
       <c r="AD219" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE219" s="4">
         <f t="shared" si="3"/>
@@ -9114,18 +9153,18 @@
         <v>Sri Lanka</v>
       </c>
     </row>
-    <row r="220" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="220" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA220" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB220" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="AC220" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="AC220" s="4" t="s">
-        <v>701</v>
-      </c>
       <c r="AD220" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE220" s="4">
         <f t="shared" si="3"/>
@@ -9140,18 +9179,18 @@
         <v>Thailand</v>
       </c>
     </row>
-    <row r="221" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="221" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA221" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB221" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="AC221" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="AC221" s="4" t="s">
-        <v>703</v>
-      </c>
       <c r="AD221" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE221" s="4">
         <f t="shared" si="3"/>
@@ -9166,18 +9205,18 @@
         <v>Timor-Leste</v>
       </c>
     </row>
-    <row r="222" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="222" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA222" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB222" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="AC222" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="AC222" s="4" t="s">
-        <v>705</v>
-      </c>
       <c r="AD222" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE222" s="4">
         <f t="shared" si="3"/>
@@ -9192,18 +9231,18 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="223" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="223" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA223" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB223" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="AC223" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="AC223" s="4" t="s">
-        <v>707</v>
-      </c>
       <c r="AD223" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AE223" s="4">
         <f t="shared" si="3"/>
@@ -9218,18 +9257,18 @@
         <v>Brunei Darussalam</v>
       </c>
     </row>
-    <row r="224" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="224" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA224" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB224" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="AC224" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="AC224" s="4" t="s">
+      <c r="AD224" s="4" t="s">
         <v>709</v>
-      </c>
-      <c r="AD224" s="4" t="s">
-        <v>710</v>
       </c>
       <c r="AE224" s="4">
         <f t="shared" si="3"/>
@@ -9244,18 +9283,18 @@
         <v>Cambodia</v>
       </c>
     </row>
-    <row r="225" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="225" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA225" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB225" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="AC225" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="AC225" s="4" t="s">
-        <v>712</v>
-      </c>
       <c r="AD225" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE225" s="4">
         <f t="shared" si="3"/>
@@ -9270,18 +9309,18 @@
         <v>China</v>
       </c>
     </row>
-    <row r="226" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="226" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA226" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB226" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="AC226" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="AC226" s="4" t="s">
-        <v>714</v>
-      </c>
       <c r="AD226" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE226" s="4">
         <f t="shared" si="3"/>
@@ -9296,18 +9335,18 @@
         <v>Cook Islands</v>
       </c>
     </row>
-    <row r="227" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="227" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA227" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB227" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="AB227" s="4" t="s">
+      <c r="AC227" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="AC227" s="4" t="s">
-        <v>717</v>
-      </c>
       <c r="AD227" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE227" s="4">
         <f t="shared" si="3"/>
@@ -9322,18 +9361,18 @@
         <v>Fiji</v>
       </c>
     </row>
-    <row r="228" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="228" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA228" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB228" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="AC228" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="AC228" s="4" t="s">
-        <v>719</v>
-      </c>
       <c r="AD228" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE228" s="4">
         <f t="shared" si="3"/>
@@ -9348,18 +9387,18 @@
         <v>Japan</v>
       </c>
     </row>
-    <row r="229" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="229" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA229" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB229" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC229" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="AC229" s="4" t="s">
-        <v>721</v>
-      </c>
       <c r="AD229" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE229" s="4">
         <f t="shared" si="3"/>
@@ -9374,18 +9413,18 @@
         <v>Kiribati</v>
       </c>
     </row>
-    <row r="230" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="230" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA230" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB230" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="AC230" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="AC230" s="4" t="s">
-        <v>723</v>
-      </c>
       <c r="AD230" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE230" s="4">
         <f t="shared" si="3"/>
@@ -9400,18 +9439,18 @@
         <v>Lao People's Democratic Republic</v>
       </c>
     </row>
-    <row r="231" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="231" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA231" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB231" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="AC231" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="AC231" s="4" t="s">
-        <v>725</v>
-      </c>
       <c r="AD231" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE231" s="4">
         <f t="shared" si="3"/>
@@ -9426,18 +9465,18 @@
         <v>Malaysia</v>
       </c>
     </row>
-    <row r="232" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="232" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA232" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB232" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="AC232" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="AC232" s="4" t="s">
-        <v>727</v>
-      </c>
       <c r="AD232" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE232" s="4">
         <f t="shared" si="3"/>
@@ -9452,18 +9491,18 @@
         <v>Marshall Islands</v>
       </c>
     </row>
-    <row r="233" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="233" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA233" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB233" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="AC233" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="AC233" s="4" t="s">
-        <v>729</v>
-      </c>
       <c r="AD233" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE233" s="4">
         <f t="shared" si="3"/>
@@ -9478,18 +9517,18 @@
         <v>Micronesia (Federated States of)</v>
       </c>
     </row>
-    <row r="234" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="234" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA234" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB234" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="AC234" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="AC234" s="4" t="s">
-        <v>731</v>
-      </c>
       <c r="AD234" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE234" s="4">
         <f t="shared" si="3"/>
@@ -9504,18 +9543,18 @@
         <v>Mongolia</v>
       </c>
     </row>
-    <row r="235" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="235" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA235" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB235" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="AC235" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="AC235" s="4" t="s">
-        <v>733</v>
-      </c>
       <c r="AD235" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE235" s="4">
         <f t="shared" si="3"/>
@@ -9530,18 +9569,18 @@
         <v>Nauru</v>
       </c>
     </row>
-    <row r="236" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="236" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA236" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB236" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="AC236" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="AC236" s="4" t="s">
-        <v>735</v>
-      </c>
       <c r="AD236" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE236" s="4">
         <f t="shared" si="3"/>
@@ -9556,18 +9595,18 @@
         <v>New Zealand</v>
       </c>
     </row>
-    <row r="237" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="237" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA237" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB237" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="AC237" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="AC237" s="4" t="s">
-        <v>737</v>
-      </c>
       <c r="AD237" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE237" s="4">
         <f t="shared" si="3"/>
@@ -9582,18 +9621,18 @@
         <v>Niue</v>
       </c>
     </row>
-    <row r="238" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="238" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA238" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB238" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="AC238" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="AC238" s="4" t="s">
-        <v>739</v>
-      </c>
       <c r="AD238" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE238" s="4">
         <f t="shared" si="3"/>
@@ -9608,18 +9647,18 @@
         <v>Palau</v>
       </c>
     </row>
-    <row r="239" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="239" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA239" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB239" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="AC239" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="AC239" s="4" t="s">
-        <v>741</v>
-      </c>
       <c r="AD239" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE239" s="4">
         <f t="shared" si="3"/>
@@ -9634,18 +9673,18 @@
         <v>Papua New Guinea</v>
       </c>
     </row>
-    <row r="240" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="240" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA240" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB240" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="AB240" s="4" t="s">
+      <c r="AC240" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="AC240" s="4" t="s">
-        <v>744</v>
-      </c>
       <c r="AD240" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE240" s="4">
         <f t="shared" si="3"/>
@@ -9660,18 +9699,18 @@
         <v>Philippines</v>
       </c>
     </row>
-    <row r="241" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="241" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA241" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB241" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="AC241" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="AC241" s="4" t="s">
-        <v>746</v>
-      </c>
       <c r="AD241" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE241" s="4">
         <f t="shared" si="3"/>
@@ -9686,18 +9725,18 @@
         <v>Republic of Korea</v>
       </c>
     </row>
-    <row r="242" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="242" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA242" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB242" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="AC242" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="AC242" s="4" t="s">
-        <v>748</v>
-      </c>
       <c r="AD242" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE242" s="4">
         <f t="shared" si="3"/>
@@ -9712,18 +9751,18 @@
         <v>Samoa</v>
       </c>
     </row>
-    <row r="243" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="243" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA243" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB243" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="AC243" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="AC243" s="4" t="s">
-        <v>750</v>
-      </c>
       <c r="AD243" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE243" s="4">
         <f t="shared" si="3"/>
@@ -9738,18 +9777,18 @@
         <v>Singapore</v>
       </c>
     </row>
-    <row r="244" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="244" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA244" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB244" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="AC244" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="AC244" s="4" t="s">
-        <v>752</v>
-      </c>
       <c r="AD244" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE244" s="4">
         <f t="shared" si="3"/>
@@ -9764,18 +9803,18 @@
         <v>Solomon Islands</v>
       </c>
     </row>
-    <row r="245" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="245" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA245" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB245" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="AC245" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="AC245" s="4" t="s">
-        <v>754</v>
-      </c>
       <c r="AD245" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE245" s="4">
         <f t="shared" si="3"/>
@@ -9790,18 +9829,18 @@
         <v>Tonga</v>
       </c>
     </row>
-    <row r="246" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="246" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA246" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB246" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="AC246" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="AC246" s="4" t="s">
-        <v>756</v>
-      </c>
       <c r="AD246" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE246" s="4">
         <f t="shared" si="3"/>
@@ -9816,18 +9855,18 @@
         <v>Tuvalu</v>
       </c>
     </row>
-    <row r="247" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="247" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA247" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB247" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="AC247" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="AC247" s="4" t="s">
-        <v>758</v>
-      </c>
       <c r="AD247" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE247" s="4">
         <f t="shared" si="3"/>
@@ -9842,18 +9881,18 @@
         <v>Vanuatu</v>
       </c>
     </row>
-    <row r="248" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="248" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA248" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB248" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="AC248" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="AC248" s="4" t="s">
-        <v>760</v>
-      </c>
       <c r="AD248" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE248" s="4">
         <f t="shared" si="3"/>
@@ -9868,18 +9907,18 @@
         <v>Viet Nam</v>
       </c>
     </row>
-    <row r="249" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="249" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA249" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB249" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="AC249" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="AC249" s="4" t="s">
-        <v>762</v>
-      </c>
       <c r="AD249" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE249" s="4">
         <f t="shared" si="3"/>
@@ -9894,18 +9933,18 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="27:33" x14ac:dyDescent="0.4">
+    <row r="250" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA250" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB250" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="AC250" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="AC250" s="4" t="s">
-        <v>764</v>
-      </c>
       <c r="AD250" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE250" s="4">
         <f t="shared" si="3"/>
@@ -9921,7 +9960,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="68a7xf6NEP5sJK5BnSZRIsPK339oIyGx48io5F4vkImo0bD9tEJ/TGZTetzP0MS+5Hu7s79rpDEP/0bQjWnqng==" saltValue="Qr5iAWaS0E5ibKpfglwrFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gdC4a6A2UANSnKSzpmr7m7pVAUvDAynuQCFWyQdxWqgW14eUSFy5cABuJx3O7/g6+YURi4jYuNEmZn/qHhI4Cw==" saltValue="PZzhAzsY+yyJAP5oHlAdgw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B2:O2"/>
@@ -9936,9 +9975,13 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K7:L7"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:L15">
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:L15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{F94897A3-3B29-4FB5-9680-7178F9F04721}">
+      <formula1>YEAR(TODAY())-5</formula1>
+      <formula2>YEAR(TODAY())-1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9953,13 +9996,13 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>713014</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>277586</xdr:rowOff>
+                <xdr:rowOff>276225</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>10886</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
@@ -9976,309 +10019,304 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15234375" style="4"/>
-    <col min="2" max="2" width="10.84375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53.3828125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.4609375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.23046875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.23046875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.07421875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="20.765625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.53515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.3046875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.61328125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.07421875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.84375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.15234375" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.15234375" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="10.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="18.7109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="4" customWidth="1"/>
+    <col min="12" max="13" width="11.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-    </row>
-    <row r="2" spans="2:15" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
-        <v>766</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="14" t="e">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="12" t="e">
         <f>'Entry into Labour Market'!X2</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="22.75" x14ac:dyDescent="0.4">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
+    <row r="3" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="36" t="str">
         <f>'Entry into Labour Market'!X1</f>
         <v/>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="str">
+      <c r="E4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="36" t="str">
         <f>'Entry into Labour Market'!H4</f>
         <v/>
       </c>
-      <c r="G4" s="6"/>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="36">
         <f>'Entry into Labour Market'!K4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M6" s="5"/>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="34" t="s">
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="2:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="28" t="s">
+        <v>772</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>767</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>774</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="30" t="s">
+      <c r="F8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>775</v>
-      </c>
-      <c r="I7" s="32" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>777</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
         <v>4</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="7">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="7">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="7">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="7">
-        <v>7</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="79PdJ+MgxZ6eLXQObD8hmYPbnqSTtD933mQKSx6KNtXcM47kUYTRQgnM9xX+epAqDfkvalqQ7dTC1EunKJd+qQ==" saltValue="aLY6e0HlEKlHAgbFC0Kztw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2BPZ6rGYc5zHPtlTvv7qwYEt5eYZy9zHASXcTQ+FBfKnnfy6TEdkWhnb9DWQXyE+SJ7caE++4/HdG404+rsQkA==" saltValue="8BUdj+8BZ1bQDUpduHh9pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>
@@ -10293,7 +10331,7 @@
     <mergeCell ref="G7:G8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:M15">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:M15" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
